--- a/P10/Scrum_Sprint_4.xlsx
+++ b/P10/Scrum_Sprint_4.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{966017B6-6A7C-4E0A-9B3E-D07056E6DADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\cse1325\P10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6457EA90-ACAA-4C8A-91CB-1230F5088933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="167">
   <si>
     <t>Product Name:</t>
   </si>
@@ -508,6 +513,36 @@
   </si>
   <si>
     <t>NOTE: This sprint is entirely OPTIONAL – no points will be lost if you ignore it</t>
+  </si>
+  <si>
+    <t>add cost()</t>
+  </si>
+  <si>
+    <t>Completed Day 3</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>add orders to view</t>
+  </si>
+  <si>
+    <t>add order to insert</t>
+  </si>
+  <si>
+    <t>Completed Day 5</t>
+  </si>
+  <si>
+    <t>unified dialog</t>
+  </si>
+  <si>
+    <t>In Work</t>
+  </si>
+  <si>
+    <t>about dialog and gile i/o</t>
+  </si>
+  <si>
+    <t>Completed Day 6</t>
   </si>
 </sst>
 </file>
@@ -518,7 +553,7 @@
     <numFmt numFmtId="164" formatCode="mmm\ dd"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -668,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -798,12 +833,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2188,7 +2217,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="en-US" sz="1300" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Sprint Burn Chart</a:t>
@@ -2266,28 +2295,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2337,7 +2366,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Days</a:t>
@@ -2411,7 +2440,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900" b="0" strike="noStrike" spc="-1">
+                  <a:rPr lang="en-US" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
                   <a:t>Tasks</a:t>
@@ -3128,7 +3157,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -3169,7 +3198,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
@@ -3210,7 +3239,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
@@ -3251,7 +3280,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
@@ -3292,7 +3321,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
@@ -3333,7 +3362,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
@@ -3374,7 +3403,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
@@ -3700,11 +3729,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="4" customWidth="1"/>
@@ -3720,7 +3749,7 @@
     <col min="12" max="1024" width="11.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" ht="17.45">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3736,7 +3765,7 @@
       </c>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="15">
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3750,7 +3779,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -3762,7 +3791,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1">
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -3780,7 +3809,7 @@
       </c>
       <c r="J4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1">
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -3794,7 +3823,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1">
+    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -3806,7 +3835,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1">
+    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
@@ -3818,7 +3847,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1">
+    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -3830,7 +3859,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1">
+    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -3842,7 +3871,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1">
+    <row r="10" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -3854,7 +3883,7 @@
       <c r="I10"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="7" customFormat="1">
+    <row r="11" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3874,7 +3903,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="7" customFormat="1">
+    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>0</v>
       </c>
@@ -3895,7 +3924,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="7" customFormat="1">
+    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>1</v>
       </c>
@@ -3919,7 +3948,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="7" customFormat="1">
+    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -3943,7 +3972,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="7" customFormat="1">
+    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>3</v>
       </c>
@@ -3967,7 +3996,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="7" customFormat="1">
+    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>4</v>
       </c>
@@ -3987,7 +4016,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1">
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>5</v>
       </c>
@@ -4007,7 +4036,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1">
+    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4019,7 +4048,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" s="7" customFormat="1">
+    <row r="19" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4031,7 +4060,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:11" s="7" customFormat="1">
+    <row r="20" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -4045,7 +4074,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" s="7" customFormat="1">
+    <row r="21" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4059,7 +4088,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:11" s="4" customFormat="1">
+    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -4075,7 +4104,7 @@
       </c>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
@@ -4110,7 +4139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
         <v>30</v>
       </c>
@@ -4139,7 +4168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="24.2">
+    <row r="25" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
         <v>35</v>
       </c>
@@ -4168,7 +4197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="24.2">
+    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
         <v>40</v>
       </c>
@@ -4195,7 +4224,7 @@
       </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" ht="24.2">
+    <row r="27" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
         <v>43</v>
       </c>
@@ -4222,7 +4251,7 @@
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" ht="24.2">
+    <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>46</v>
       </c>
@@ -4249,7 +4278,7 @@
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>49</v>
       </c>
@@ -4278,7 +4307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>53</v>
       </c>
@@ -4307,7 +4336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>57</v>
       </c>
@@ -4334,7 +4363,7 @@
       </c>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>59</v>
       </c>
@@ -4361,7 +4390,7 @@
       </c>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" ht="24">
+    <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>61</v>
       </c>
@@ -4390,7 +4419,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>65</v>
       </c>
@@ -4419,7 +4448,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="24">
+    <row r="35" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="41" t="s">
         <v>69</v>
       </c>
@@ -4448,7 +4477,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="36" spans="1:11" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>74</v>
       </c>
@@ -4477,7 +4506,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="22" customFormat="1" ht="24.2">
+    <row r="37" spans="1:11" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>78</v>
       </c>
@@ -4506,7 +4535,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="22" customFormat="1">
+    <row r="38" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>83</v>
       </c>
@@ -4535,7 +4564,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="22" customFormat="1">
+    <row r="39" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
         <v>87</v>
       </c>
@@ -4564,7 +4593,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="22" customFormat="1">
+    <row r="40" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>90</v>
       </c>
@@ -4593,7 +4622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>92</v>
       </c>
@@ -4620,7 +4649,7 @@
       </c>
       <c r="K41" s="19"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>94</v>
       </c>
@@ -4647,7 +4676,7 @@
       </c>
       <c r="K42" s="19"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>97</v>
       </c>
@@ -4676,7 +4705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="22" customFormat="1" ht="24">
+    <row r="44" spans="1:11" s="22" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>101</v>
       </c>
@@ -4705,18 +4734,18 @@
         <v>104</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="22" customFormat="1">
-      <c r="A45" s="48" t="s">
+    <row r="45" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="49">
+      <c r="B45" s="16">
         <v>22</v>
       </c>
-      <c r="C45" s="49">
+      <c r="C45" s="16">
         <v>5</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49">
+      <c r="D45" s="16"/>
+      <c r="E45" s="16">
         <v>8</v>
       </c>
       <c r="F45" s="17"/>
@@ -4728,7 +4757,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="22" customFormat="1">
+    <row r="46" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
         <v>107</v>
       </c>
@@ -4757,7 +4786,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="22" customFormat="1">
+    <row r="47" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15" t="s">
         <v>111</v>
       </c>
@@ -4786,7 +4815,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -4799,7 +4828,7 @@
       <c r="J48" s="19"/>
       <c r="K48" s="19"/>
     </row>
-    <row r="49" spans="1:11" s="22" customFormat="1" ht="15">
+    <row r="49" spans="1:11" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -4814,7 +4843,7 @@
       <c r="J49" s="19"/>
       <c r="K49" s="19"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -4827,7 +4856,7 @@
       <c r="J50" s="19"/>
       <c r="K50" s="19"/>
     </row>
-    <row r="51" spans="1:11" ht="24.2">
+    <row r="51" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="15" t="s">
         <v>117</v>
       </c>
@@ -4852,7 +4881,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="35.450000000000003">
+    <row r="52" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>121</v>
       </c>
@@ -4877,7 +4906,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="15" t="s">
         <v>125</v>
       </c>
@@ -4902,7 +4931,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="24.2">
+    <row r="54" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
         <v>129</v>
       </c>
@@ -4925,7 +4954,7 @@
       </c>
       <c r="K54" s="19"/>
     </row>
-    <row r="55" spans="1:11" ht="24.2">
+    <row r="55" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="15" t="s">
         <v>132</v>
       </c>
@@ -4950,7 +4979,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -4963,7 +4992,7 @@
       <c r="J56" s="19"/>
       <c r="K56" s="19"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -4976,7 +5005,7 @@
       <c r="J57" s="19"/>
       <c r="K57" s="19"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -4989,7 +5018,7 @@
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -5002,7 +5031,7 @@
       <c r="J59" s="19"/>
       <c r="K59" s="19"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -5015,7 +5044,7 @@
       <c r="J60" s="19"/>
       <c r="K60" s="19"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -5028,7 +5057,7 @@
       <c r="J61" s="19"/>
       <c r="K61" s="19"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -5041,7 +5070,7 @@
       <c r="J62" s="19"/>
       <c r="K62" s="19"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -5054,7 +5083,7 @@
       <c r="J63" s="19"/>
       <c r="K63" s="19"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -5067,7 +5096,7 @@
       <c r="J64" s="19"/>
       <c r="K64" s="19"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -5080,7 +5109,7 @@
       <c r="J65" s="19"/>
       <c r="K65" s="19"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -5093,7 +5122,7 @@
       <c r="J66" s="19"/>
       <c r="K66" s="19"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -5106,7 +5135,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -5119,7 +5148,7 @@
       <c r="J68" s="19"/>
       <c r="K68" s="19"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -5132,7 +5161,7 @@
       <c r="J69" s="19"/>
       <c r="K69" s="19"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -5145,7 +5174,7 @@
       <c r="J70" s="19"/>
       <c r="K70" s="19"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -5158,7 +5187,7 @@
       <c r="J71" s="19"/>
       <c r="K71" s="19"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -5171,7 +5200,7 @@
       <c r="J72" s="19"/>
       <c r="K72" s="19"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -5184,7 +5213,7 @@
       <c r="J73" s="19"/>
       <c r="K73" s="19"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -5197,7 +5226,7 @@
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -5210,7 +5239,7 @@
       <c r="J75" s="19"/>
       <c r="K75" s="19"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -5223,7 +5252,7 @@
       <c r="J76" s="19"/>
       <c r="K76" s="19"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -5236,7 +5265,7 @@
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -5249,7 +5278,7 @@
       <c r="J78" s="19"/>
       <c r="K78" s="19"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -5262,7 +5291,7 @@
       <c r="J79" s="19"/>
       <c r="K79" s="19"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -5275,7 +5304,7 @@
       <c r="J80" s="19"/>
       <c r="K80" s="19"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -5288,7 +5317,7 @@
       <c r="J81" s="19"/>
       <c r="K81" s="19"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -5301,7 +5330,7 @@
       <c r="J82" s="19"/>
       <c r="K82" s="19"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -5314,7 +5343,7 @@
       <c r="J83" s="19"/>
       <c r="K83" s="19"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -5327,7 +5356,7 @@
       <c r="J84" s="19"/>
       <c r="K84" s="19"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
@@ -5340,7 +5369,7 @@
       <c r="J85" s="19"/>
       <c r="K85" s="19"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
@@ -5353,7 +5382,7 @@
       <c r="J86" s="19"/>
       <c r="K86" s="19"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
@@ -5366,7 +5395,7 @@
       <c r="J87" s="19"/>
       <c r="K87" s="19"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
@@ -5379,7 +5408,7 @@
       <c r="J88" s="19"/>
       <c r="K88" s="19"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
@@ -5392,7 +5421,7 @@
       <c r="J89" s="19"/>
       <c r="K89" s="19"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
@@ -5405,7 +5434,7 @@
       <c r="J90" s="19"/>
       <c r="K90" s="19"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -5418,7 +5447,7 @@
       <c r="J91" s="19"/>
       <c r="K91" s="19"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -5431,7 +5460,7 @@
       <c r="J92" s="19"/>
       <c r="K92" s="19"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -5444,7 +5473,7 @@
       <c r="J93" s="19"/>
       <c r="K93" s="19"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -5457,7 +5486,7 @@
       <c r="J94" s="19"/>
       <c r="K94" s="19"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -5470,7 +5499,7 @@
       <c r="J95" s="19"/>
       <c r="K95" s="19"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -5483,7 +5512,7 @@
       <c r="J96" s="19"/>
       <c r="K96" s="19"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -5496,7 +5525,7 @@
       <c r="J97" s="19"/>
       <c r="K97" s="19"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -5509,7 +5538,7 @@
       <c r="J98" s="19"/>
       <c r="K98" s="19"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -5522,7 +5551,7 @@
       <c r="J99" s="19"/>
       <c r="K99" s="19"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -5535,7 +5564,7 @@
       <c r="J100" s="19"/>
       <c r="K100" s="19"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -5631,7 +5660,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -5640,7 +5669,7 @@
     <col min="6" max="6" width="51.85546875" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -5656,7 +5685,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>136</v>
       </c>
@@ -5672,7 +5701,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>138</v>
       </c>
@@ -5687,7 +5716,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>139</v>
       </c>
@@ -5701,7 +5730,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -5711,7 +5740,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -5725,7 +5754,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>142</v>
       </c>
@@ -5740,12 +5769,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -5758,12 +5787,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -5776,12 +5805,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -5794,12 +5823,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -5812,12 +5841,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -5830,12 +5859,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -5848,12 +5877,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -5866,7 +5895,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -5876,7 +5905,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>150</v>
       </c>
@@ -5896,7 +5925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -5908,7 +5937,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -5918,7 +5947,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -5928,7 +5957,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -5938,7 +5967,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -5948,7 +5977,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -5958,7 +5987,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -5968,7 +5997,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -5978,7 +6007,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -5988,7 +6017,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -5998,7 +6027,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -6008,7 +6037,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -6018,7 +6047,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -6028,7 +6057,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -6038,7 +6067,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -6048,7 +6077,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -6058,7 +6087,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -6068,7 +6097,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -6078,7 +6107,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -6088,7 +6117,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -6098,7 +6127,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -6108,7 +6137,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -6118,7 +6147,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -6128,7 +6157,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -6138,7 +6167,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -6148,7 +6177,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -6158,7 +6187,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -6168,7 +6197,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -6178,7 +6207,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -6188,7 +6217,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -6198,7 +6227,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -6208,7 +6237,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -6218,7 +6247,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -6228,7 +6257,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -6238,7 +6267,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -6248,7 +6277,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -6258,7 +6287,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -6268,7 +6297,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -6278,7 +6307,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -6288,7 +6317,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -6298,7 +6327,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -6308,7 +6337,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -6318,7 +6347,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -6328,7 +6357,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -6338,7 +6367,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -6348,7 +6377,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -6358,7 +6387,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -6368,7 +6397,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -6378,7 +6407,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -6388,7 +6417,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -6398,7 +6427,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -6408,7 +6437,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -6418,7 +6447,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -6428,7 +6457,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -6438,7 +6467,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -6448,7 +6477,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -6458,7 +6487,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -6468,7 +6497,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -6478,7 +6507,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -6488,7 +6517,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -6498,7 +6527,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -6508,7 +6537,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -6518,7 +6547,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -6528,7 +6557,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -6538,7 +6567,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -6548,7 +6577,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -6558,7 +6587,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -6568,7 +6597,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -6578,7 +6607,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -6588,7 +6617,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -6598,7 +6627,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -6608,7 +6637,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -6618,7 +6647,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -6628,7 +6657,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -6638,7 +6667,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -6648,7 +6677,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -6658,7 +6687,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -6668,7 +6697,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -6678,7 +6707,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -6688,7 +6717,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -6698,7 +6727,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -6708,7 +6737,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -6718,7 +6747,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -6728,7 +6757,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -6799,7 +6828,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -6808,7 +6837,7 @@
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -6825,7 +6854,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>136</v>
       </c>
@@ -6842,7 +6871,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>138</v>
       </c>
@@ -6857,7 +6886,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>139</v>
       </c>
@@ -6871,7 +6900,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -6881,7 +6910,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -6895,7 +6924,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>142</v>
       </c>
@@ -6910,12 +6939,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -6928,12 +6957,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -6946,12 +6975,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -6964,12 +6993,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -6982,12 +7011,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -7000,12 +7029,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -7018,12 +7047,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -7036,7 +7065,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -7046,7 +7075,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>150</v>
       </c>
@@ -7066,7 +7095,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -7078,7 +7107,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -7088,7 +7117,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -7098,7 +7127,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -7108,7 +7137,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -7118,7 +7147,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -7128,7 +7157,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -7138,7 +7167,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -7148,7 +7177,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -7158,7 +7187,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -7168,7 +7197,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -7178,7 +7207,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -7188,7 +7217,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -7198,7 +7227,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -7208,7 +7237,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -7218,7 +7247,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -7228,7 +7257,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -7238,7 +7267,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -7248,7 +7277,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -7258,7 +7287,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -7268,7 +7297,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -7278,7 +7307,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -7288,7 +7317,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -7298,7 +7327,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -7308,7 +7337,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -7318,7 +7347,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -7328,7 +7357,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -7338,7 +7367,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -7348,7 +7377,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -7358,7 +7387,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -7368,7 +7397,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -7378,7 +7407,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -7388,7 +7417,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -7398,7 +7427,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -7408,7 +7437,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -7418,7 +7447,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -7428,7 +7457,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -7438,7 +7467,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -7448,7 +7477,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -7458,7 +7487,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -7468,7 +7497,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -7478,7 +7507,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -7488,7 +7517,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -7498,7 +7527,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -7508,7 +7537,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -7518,7 +7547,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -7528,7 +7557,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -7538,7 +7567,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -7548,7 +7577,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -7558,7 +7587,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -7568,7 +7597,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -7578,7 +7607,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -7588,7 +7617,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -7598,7 +7627,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -7608,7 +7637,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -7618,7 +7647,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -7628,7 +7657,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -7638,7 +7667,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -7648,7 +7677,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -7658,7 +7687,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -7668,7 +7697,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -7678,7 +7707,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -7688,7 +7717,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -7698,7 +7727,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -7708,7 +7737,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -7718,7 +7747,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -7728,7 +7757,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -7738,7 +7767,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -7748,7 +7777,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -7758,7 +7787,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -7768,7 +7797,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -7778,7 +7807,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -7788,7 +7817,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -7798,7 +7827,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -7808,7 +7837,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -7818,7 +7847,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -7828,7 +7857,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -7838,7 +7867,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -7848,7 +7877,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -7858,7 +7887,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -7868,7 +7897,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -7878,7 +7907,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -7888,7 +7917,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -7898,7 +7927,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -7969,7 +7998,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -7978,7 +8007,7 @@
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -7995,7 +8024,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>136</v>
       </c>
@@ -8012,7 +8041,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>138</v>
       </c>
@@ -8027,7 +8056,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>139</v>
       </c>
@@ -8041,7 +8070,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -8051,7 +8080,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -8065,7 +8094,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>142</v>
       </c>
@@ -8080,12 +8109,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -8098,12 +8127,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -8116,12 +8145,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -8134,12 +8163,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -8152,12 +8181,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -8170,12 +8199,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -8188,12 +8217,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -8206,7 +8235,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -8216,7 +8245,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>150</v>
       </c>
@@ -8236,7 +8265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -8248,7 +8277,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -8258,7 +8287,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -8268,7 +8297,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -8278,7 +8307,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -8288,7 +8317,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -8298,7 +8327,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -8308,7 +8337,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -8318,7 +8347,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -8328,7 +8357,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -8338,7 +8367,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -8348,7 +8377,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -8358,7 +8387,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -8368,7 +8397,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -8378,7 +8407,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -8388,7 +8417,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -8398,7 +8427,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -8408,7 +8437,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -8418,7 +8447,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -8428,7 +8457,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -8438,7 +8467,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -8448,7 +8477,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -8458,7 +8487,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -8468,7 +8497,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -8478,7 +8507,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -8488,7 +8517,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -8498,7 +8527,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -8508,7 +8537,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -8518,7 +8547,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -8528,7 +8557,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -8538,7 +8567,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -8548,7 +8577,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -8558,7 +8587,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -8568,7 +8597,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -8578,7 +8607,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -8588,7 +8617,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -8598,7 +8627,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -8608,7 +8637,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -8618,7 +8647,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -8628,7 +8657,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -8638,7 +8667,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -8648,7 +8677,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -8658,7 +8687,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -8668,7 +8697,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -8678,7 +8707,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -8688,7 +8717,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -8698,7 +8727,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -8708,7 +8737,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -8718,7 +8747,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -8728,7 +8757,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -8738,7 +8767,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -8748,7 +8777,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -8758,7 +8787,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -8768,7 +8797,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -8778,7 +8807,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -8788,7 +8817,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -8798,7 +8827,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -8808,7 +8837,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -8818,7 +8847,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -8828,7 +8857,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -8838,7 +8867,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -8848,7 +8877,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -8858,7 +8887,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -8868,7 +8897,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -8878,7 +8907,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -8888,7 +8917,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -8898,7 +8927,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -8908,7 +8937,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -8918,7 +8947,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -8928,7 +8957,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -8938,7 +8967,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -8948,7 +8977,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -8958,7 +8987,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -8968,7 +8997,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -8978,7 +9007,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -8988,7 +9017,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -8998,7 +9027,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -9008,7 +9037,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -9018,7 +9047,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -9028,7 +9057,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -9038,7 +9067,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -9048,7 +9077,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -9058,7 +9087,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -9068,7 +9097,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -9135,11 +9164,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -9148,7 +9177,7 @@
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -9165,7 +9194,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>136</v>
       </c>
@@ -9181,7 +9210,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>138</v>
       </c>
@@ -9196,7 +9225,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>139</v>
       </c>
@@ -9210,7 +9239,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -9220,7 +9249,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -9234,13 +9263,13 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B7" s="25">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
@@ -9249,13 +9278,13 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
-        <v>1</v>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
+        <v>9</v>
       </c>
       <c r="C8" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
@@ -9267,13 +9296,13 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="C9" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 2")</f>
@@ -9285,17 +9314,17 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C10" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 3")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -9303,13 +9332,13 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="C11" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 4")</f>
@@ -9321,17 +9350,17 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C12" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 5")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -9339,17 +9368,17 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C13" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -9357,13 +9386,13 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -9375,7 +9404,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -9385,7 +9414,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>150</v>
       </c>
@@ -9405,99 +9434,133 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
       <c r="B17" s="35"/>
       <c r="C17" s="4"/>
       <c r="D17" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="37"/>
+        <v>157</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="37"/>
+      <c r="D18" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="37" t="s">
+        <v>158</v>
+      </c>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="37"/>
+      <c r="D19" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>162</v>
+      </c>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="37"/>
+      <c r="D20" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>162</v>
+      </c>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="37"/>
+      <c r="D21" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>162</v>
+      </c>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="37"/>
+      <c r="D22" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="37" t="s">
+        <v>164</v>
+      </c>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="37"/>
+      <c r="D23" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>164</v>
+      </c>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="37"/>
+      <c r="D24" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>166</v>
+      </c>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="37"/>
+      <c r="D25" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>166</v>
+      </c>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -9507,7 +9570,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -9517,7 +9580,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -9527,7 +9590,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -9537,7 +9600,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -9547,7 +9610,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -9557,7 +9620,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -9567,7 +9630,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -9577,7 +9640,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -9587,7 +9650,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -9597,7 +9660,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -9607,7 +9670,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -9617,7 +9680,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -9627,7 +9690,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -9637,7 +9700,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -9647,7 +9710,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -9657,7 +9720,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -9667,7 +9730,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -9677,7 +9740,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -9687,7 +9750,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -9697,7 +9760,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -9707,7 +9770,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -9717,7 +9780,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -9727,7 +9790,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -9737,7 +9800,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -9747,7 +9810,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -9757,7 +9820,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -9767,7 +9830,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -9777,7 +9840,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -9787,7 +9850,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -9797,7 +9860,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -9807,7 +9870,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -9817,7 +9880,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -9827,7 +9890,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -9837,7 +9900,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -9847,7 +9910,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -9857,7 +9920,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -9867,7 +9930,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -9877,7 +9940,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -9887,7 +9950,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -9897,7 +9960,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -9907,7 +9970,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -9917,7 +9980,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -9927,7 +9990,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -9937,7 +10000,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -9947,7 +10010,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -9957,7 +10020,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -9967,7 +10030,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -9977,7 +10040,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -9987,7 +10050,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -9997,7 +10060,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -10007,7 +10070,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -10017,7 +10080,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -10027,7 +10090,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -10037,7 +10100,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -10047,7 +10110,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -10057,7 +10120,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -10067,7 +10130,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -10077,7 +10140,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -10087,7 +10150,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -10097,7 +10160,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -10107,7 +10170,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -10117,7 +10180,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -10127,7 +10190,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -10137,7 +10200,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -10147,7 +10210,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -10157,7 +10220,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -10167,7 +10230,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -10177,7 +10240,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -10187,7 +10250,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -10197,7 +10260,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -10207,7 +10270,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -10217,7 +10280,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -10227,7 +10290,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -10237,7 +10300,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -10308,7 +10371,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -10317,7 +10380,7 @@
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -10334,7 +10397,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>136</v>
       </c>
@@ -10351,7 +10414,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>138</v>
       </c>
@@ -10366,7 +10429,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>139</v>
       </c>
@@ -10380,7 +10443,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -10390,7 +10453,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -10404,7 +10467,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>142</v>
       </c>
@@ -10419,12 +10482,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -10437,12 +10500,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -10455,12 +10518,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -10473,12 +10536,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -10491,12 +10554,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -10509,12 +10572,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -10527,12 +10590,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -10545,7 +10608,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -10555,7 +10618,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>150</v>
       </c>
@@ -10575,7 +10638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -10587,7 +10650,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -10597,7 +10660,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -10607,7 +10670,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -10617,7 +10680,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -10627,7 +10690,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -10637,7 +10700,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -10647,7 +10710,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -10657,7 +10720,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -10667,7 +10730,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -10677,7 +10740,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -10687,7 +10750,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -10697,7 +10760,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -10707,7 +10770,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -10717,7 +10780,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -10727,7 +10790,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -10737,7 +10800,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -10747,7 +10810,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -10757,7 +10820,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -10767,7 +10830,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -10777,7 +10840,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -10787,7 +10850,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -10797,7 +10860,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -10807,7 +10870,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -10817,7 +10880,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -10827,7 +10890,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -10837,7 +10900,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -10847,7 +10910,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -10857,7 +10920,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -10867,7 +10930,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -10877,7 +10940,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -10887,7 +10950,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -10897,7 +10960,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -10907,7 +10970,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -10917,7 +10980,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -10927,7 +10990,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -10937,7 +11000,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -10947,7 +11010,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -10957,7 +11020,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -10967,7 +11030,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -10977,7 +11040,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -10987,7 +11050,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -10997,7 +11060,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -11007,7 +11070,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -11017,7 +11080,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -11027,7 +11090,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -11037,7 +11100,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -11047,7 +11110,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -11057,7 +11120,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -11067,7 +11130,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -11077,7 +11140,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -11087,7 +11150,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -11097,7 +11160,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -11107,7 +11170,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -11117,7 +11180,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -11127,7 +11190,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -11137,7 +11200,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -11147,7 +11210,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -11157,7 +11220,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -11167,7 +11230,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -11177,7 +11240,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -11187,7 +11250,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -11197,7 +11260,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -11207,7 +11270,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -11217,7 +11280,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -11227,7 +11290,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -11237,7 +11300,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -11247,7 +11310,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -11257,7 +11320,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -11267,7 +11330,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -11277,7 +11340,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -11287,7 +11350,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -11297,7 +11360,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -11307,7 +11370,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -11317,7 +11380,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -11327,7 +11390,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -11337,7 +11400,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -11347,7 +11410,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -11357,7 +11420,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -11367,7 +11430,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -11377,7 +11440,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -11387,7 +11450,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -11397,7 +11460,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -11407,7 +11470,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>
@@ -11478,7 +11541,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
@@ -11487,7 +11550,7 @@
     <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="28" customFormat="1" ht="17.45">
+    <row r="1" spans="1:1024" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
@@ -11506,7 +11569,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="28" customFormat="1">
+    <row r="2" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>136</v>
       </c>
@@ -11523,7 +11586,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="28" customFormat="1">
+    <row r="3" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>138</v>
       </c>
@@ -11538,7 +11601,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="28" customFormat="1">
+    <row r="4" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>139</v>
       </c>
@@ -11552,7 +11615,7 @@
       <c r="AMI4"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="28" customFormat="1">
+    <row r="5" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="31"/>
       <c r="C5" s="25"/>
@@ -11562,7 +11625,7 @@
       <c r="AMI5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="28" customFormat="1">
+    <row r="6" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="32" t="s">
         <v>8</v>
@@ -11576,7 +11639,7 @@
       <c r="AMI6"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="28" customFormat="1">
+    <row r="7" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>142</v>
       </c>
@@ -11591,12 +11654,12 @@
       <c r="AMI7"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="28" customFormat="1">
+    <row r="8" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B8" s="25">
-        <f>B7-C8</f>
+        <f t="shared" ref="B8:B14" si="0">B7-C8</f>
         <v>1</v>
       </c>
       <c r="C8" s="25">
@@ -11609,12 +11672,12 @@
       <c r="AMI8"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="28" customFormat="1">
+    <row r="9" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B9" s="25">
-        <f>B8-C9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C9" s="25">
@@ -11627,12 +11690,12 @@
       <c r="AMI9"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="28" customFormat="1">
+    <row r="10" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B10" s="25">
-        <f>B9-C10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C10" s="25">
@@ -11645,12 +11708,12 @@
       <c r="AMI10"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="28" customFormat="1">
+    <row r="11" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="25">
-        <f>B10-C11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C11" s="25">
@@ -11663,12 +11726,12 @@
       <c r="AMI11"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="28" customFormat="1">
+    <row r="12" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B12" s="25">
-        <f>B11-C12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C12" s="25">
@@ -11681,12 +11744,12 @@
       <c r="AMI12"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="28" customFormat="1">
+    <row r="13" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B13" s="25">
-        <f>B12-C13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C13" s="25">
@@ -11699,12 +11762,12 @@
       <c r="AMI13"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="28" customFormat="1">
+    <row r="14" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B14" s="25">
-        <f>B13-C14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="C14" s="25">
@@ -11717,7 +11780,7 @@
       <c r="AMI14"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="28" customFormat="1">
+    <row r="15" spans="1:1024" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -11729,7 +11792,7 @@
       <c r="AMI15"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>150</v>
       </c>
@@ -11749,7 +11812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -11761,7 +11824,7 @@
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -11771,7 +11834,7 @@
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -11781,7 +11844,7 @@
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>4</v>
       </c>
@@ -11791,7 +11854,7 @@
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>5</v>
       </c>
@@ -11801,7 +11864,7 @@
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>6</v>
       </c>
@@ -11811,7 +11874,7 @@
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>7</v>
       </c>
@@ -11821,7 +11884,7 @@
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>8</v>
       </c>
@@ -11831,7 +11894,7 @@
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>9</v>
       </c>
@@ -11841,7 +11904,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>10</v>
       </c>
@@ -11851,7 +11914,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>11</v>
       </c>
@@ -11861,7 +11924,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="38"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>12</v>
       </c>
@@ -11871,7 +11934,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="38"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>13</v>
       </c>
@@ -11881,7 +11944,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="38"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -11891,7 +11954,7 @@
       <c r="E30" s="37"/>
       <c r="F30" s="38"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -11901,7 +11964,7 @@
       <c r="E31" s="37"/>
       <c r="F31" s="38"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>16</v>
       </c>
@@ -11911,7 +11974,7 @@
       <c r="E32" s="37"/>
       <c r="F32" s="38"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>17</v>
       </c>
@@ -11921,7 +11984,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="38"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>18</v>
       </c>
@@ -11931,7 +11994,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="38"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>19</v>
       </c>
@@ -11941,7 +12004,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="38"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>20</v>
       </c>
@@ -11951,7 +12014,7 @@
       <c r="E36" s="37"/>
       <c r="F36" s="38"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>21</v>
       </c>
@@ -11961,7 +12024,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="38"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>22</v>
       </c>
@@ -11971,7 +12034,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>23</v>
       </c>
@@ -11981,7 +12044,7 @@
       <c r="E39" s="37"/>
       <c r="F39" s="38"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>24</v>
       </c>
@@ -11991,7 +12054,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="38"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -12001,7 +12064,7 @@
       <c r="E41" s="37"/>
       <c r="F41" s="38"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>26</v>
       </c>
@@ -12011,7 +12074,7 @@
       <c r="E42" s="37"/>
       <c r="F42" s="38"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>27</v>
       </c>
@@ -12021,7 +12084,7 @@
       <c r="E43" s="37"/>
       <c r="F43" s="38"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>28</v>
       </c>
@@ -12031,7 +12094,7 @@
       <c r="E44" s="37"/>
       <c r="F44" s="38"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>29</v>
       </c>
@@ -12041,7 +12104,7 @@
       <c r="E45" s="37"/>
       <c r="F45" s="38"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>30</v>
       </c>
@@ -12051,7 +12114,7 @@
       <c r="E46" s="37"/>
       <c r="F46" s="38"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>31</v>
       </c>
@@ -12061,7 +12124,7 @@
       <c r="E47" s="37"/>
       <c r="F47" s="38"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>32</v>
       </c>
@@ -12071,7 +12134,7 @@
       <c r="E48" s="37"/>
       <c r="F48" s="38"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>33</v>
       </c>
@@ -12081,7 +12144,7 @@
       <c r="E49" s="37"/>
       <c r="F49" s="38"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>34</v>
       </c>
@@ -12091,7 +12154,7 @@
       <c r="E50" s="37"/>
       <c r="F50" s="38"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>35</v>
       </c>
@@ -12101,7 +12164,7 @@
       <c r="E51" s="37"/>
       <c r="F51" s="38"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>36</v>
       </c>
@@ -12111,7 +12174,7 @@
       <c r="E52" s="37"/>
       <c r="F52" s="38"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>37</v>
       </c>
@@ -12121,7 +12184,7 @@
       <c r="E53" s="37"/>
       <c r="F53" s="38"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>38</v>
       </c>
@@ -12131,7 +12194,7 @@
       <c r="E54" s="37"/>
       <c r="F54" s="38"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>39</v>
       </c>
@@ -12141,7 +12204,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="38"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>40</v>
       </c>
@@ -12151,7 +12214,7 @@
       <c r="E56" s="37"/>
       <c r="F56" s="38"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>41</v>
       </c>
@@ -12161,7 +12224,7 @@
       <c r="E57" s="37"/>
       <c r="F57" s="38"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>42</v>
       </c>
@@ -12171,7 +12234,7 @@
       <c r="E58" s="37"/>
       <c r="F58" s="38"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>43</v>
       </c>
@@ -12181,7 +12244,7 @@
       <c r="E59" s="37"/>
       <c r="F59" s="38"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>44</v>
       </c>
@@ -12191,7 +12254,7 @@
       <c r="E60" s="37"/>
       <c r="F60" s="38"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>45</v>
       </c>
@@ -12201,7 +12264,7 @@
       <c r="E61" s="37"/>
       <c r="F61" s="38"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>46</v>
       </c>
@@ -12211,7 +12274,7 @@
       <c r="E62" s="37"/>
       <c r="F62" s="38"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>47</v>
       </c>
@@ -12221,7 +12284,7 @@
       <c r="E63" s="37"/>
       <c r="F63" s="38"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>48</v>
       </c>
@@ -12231,7 +12294,7 @@
       <c r="E64" s="37"/>
       <c r="F64" s="38"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>49</v>
       </c>
@@ -12241,7 +12304,7 @@
       <c r="E65" s="37"/>
       <c r="F65" s="38"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>50</v>
       </c>
@@ -12251,7 +12314,7 @@
       <c r="E66" s="37"/>
       <c r="F66" s="38"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>51</v>
       </c>
@@ -12261,7 +12324,7 @@
       <c r="E67" s="37"/>
       <c r="F67" s="38"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>52</v>
       </c>
@@ -12271,7 +12334,7 @@
       <c r="E68" s="37"/>
       <c r="F68" s="38"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>53</v>
       </c>
@@ -12281,7 +12344,7 @@
       <c r="E69" s="37"/>
       <c r="F69" s="38"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>54</v>
       </c>
@@ -12291,7 +12354,7 @@
       <c r="E70" s="37"/>
       <c r="F70" s="38"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>55</v>
       </c>
@@ -12301,7 +12364,7 @@
       <c r="E71" s="37"/>
       <c r="F71" s="38"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>56</v>
       </c>
@@ -12311,7 +12374,7 @@
       <c r="E72" s="37"/>
       <c r="F72" s="38"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>57</v>
       </c>
@@ -12321,7 +12384,7 @@
       <c r="E73" s="37"/>
       <c r="F73" s="38"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>58</v>
       </c>
@@ -12331,7 +12394,7 @@
       <c r="E74" s="37"/>
       <c r="F74" s="38"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>59</v>
       </c>
@@ -12341,7 +12404,7 @@
       <c r="E75" s="37"/>
       <c r="F75" s="38"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>60</v>
       </c>
@@ -12351,7 +12414,7 @@
       <c r="E76" s="37"/>
       <c r="F76" s="38"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>61</v>
       </c>
@@ -12361,7 +12424,7 @@
       <c r="E77" s="37"/>
       <c r="F77" s="38"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>62</v>
       </c>
@@ -12371,7 +12434,7 @@
       <c r="E78" s="37"/>
       <c r="F78" s="38"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>63</v>
       </c>
@@ -12381,7 +12444,7 @@
       <c r="E79" s="37"/>
       <c r="F79" s="38"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>64</v>
       </c>
@@ -12391,7 +12454,7 @@
       <c r="E80" s="37"/>
       <c r="F80" s="38"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>65</v>
       </c>
@@ -12401,7 +12464,7 @@
       <c r="E81" s="37"/>
       <c r="F81" s="38"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>66</v>
       </c>
@@ -12411,7 +12474,7 @@
       <c r="E82" s="37"/>
       <c r="F82" s="38"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>67</v>
       </c>
@@ -12421,7 +12484,7 @@
       <c r="E83" s="37"/>
       <c r="F83" s="38"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>68</v>
       </c>
@@ -12431,7 +12494,7 @@
       <c r="E84" s="37"/>
       <c r="F84" s="38"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>69</v>
       </c>
@@ -12441,7 +12504,7 @@
       <c r="E85" s="37"/>
       <c r="F85" s="38"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>70</v>
       </c>
@@ -12451,7 +12514,7 @@
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>71</v>
       </c>
@@ -12461,7 +12524,7 @@
       <c r="E87" s="37"/>
       <c r="F87" s="38"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>72</v>
       </c>
@@ -12471,7 +12534,7 @@
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>73</v>
       </c>
@@ -12481,7 +12544,7 @@
       <c r="E89" s="37"/>
       <c r="F89" s="38"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>74</v>
       </c>
@@ -12491,7 +12554,7 @@
       <c r="E90" s="37"/>
       <c r="F90" s="38"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>75</v>
       </c>
@@ -12501,7 +12564,7 @@
       <c r="E91" s="37"/>
       <c r="F91" s="38"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>76</v>
       </c>
@@ -12511,7 +12574,7 @@
       <c r="E92" s="37"/>
       <c r="F92" s="38"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>77</v>
       </c>
@@ -12521,7 +12584,7 @@
       <c r="E93" s="37"/>
       <c r="F93" s="38"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>78</v>
       </c>
@@ -12531,7 +12594,7 @@
       <c r="E94" s="37"/>
       <c r="F94" s="38"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>79</v>
       </c>
@@ -12541,7 +12604,7 @@
       <c r="E95" s="37"/>
       <c r="F95" s="38"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>80</v>
       </c>
@@ -12551,7 +12614,7 @@
       <c r="E96" s="37"/>
       <c r="F96" s="38"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>81</v>
       </c>
@@ -12561,7 +12624,7 @@
       <c r="E97" s="37"/>
       <c r="F97" s="38"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>82</v>
       </c>
@@ -12571,7 +12634,7 @@
       <c r="E98" s="37"/>
       <c r="F98" s="38"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>83</v>
       </c>
@@ -12581,7 +12644,7 @@
       <c r="E99" s="37"/>
       <c r="F99" s="38"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>84</v>
       </c>

--- a/P10/Scrum_Sprint_4.xlsx
+++ b/P10/Scrum_Sprint_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brand\cse1325\P10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6457EA90-ACAA-4C8A-91CB-1230F5088933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417BE26A-8CB6-41DB-B303-847BACBC566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,13 +536,13 @@
     <t>unified dialog</t>
   </si>
   <si>
-    <t>In Work</t>
-  </si>
-  <si>
     <t>about dialog and gile i/o</t>
   </si>
   <si>
     <t>Completed Day 6</t>
+  </si>
+  <si>
+    <t>Completed Day 7</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2316,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9165,7 +9165,7 @@
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9392,11 +9392,11 @@
       </c>
       <c r="B14" s="25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="25">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -9514,7 +9514,7 @@
         <v>163</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F22" s="38"/>
     </row>
@@ -9528,7 +9528,7 @@
         <v>159</v>
       </c>
       <c r="E23" s="37" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F23" s="38"/>
     </row>
@@ -9539,10 +9539,10 @@
       <c r="B24" s="35"/>
       <c r="C24" s="4"/>
       <c r="D24" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>165</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>166</v>
       </c>
       <c r="F24" s="38"/>
     </row>
@@ -9556,7 +9556,7 @@
         <v>159</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F25" s="38"/>
     </row>
